--- a/data/input/absenteeism_data_1.xlsx
+++ b/data/input/absenteeism_data_1.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66158</v>
+        <v>13115</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luiz Felipe Correia</t>
+          <t>Alexandre Azevedo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,89 +490,89 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>6675.82</v>
+        <v>6153.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88523</v>
+        <v>10400</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiz Otávio Silveira</t>
+          <t>Maria Luiza Nogueira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>5676.45</v>
+        <v>8663.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32684</v>
+        <v>35852</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Davi Lucca da Paz</t>
+          <t>Srta. Luana Aragão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>5063.57</v>
+        <v>4099.16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94968</v>
+        <v>28493</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Vitor Hugo Oliveira</t>
+          <t>Sarah Lima</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,143 +581,143 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>10223.88</v>
+        <v>7554.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90486</v>
+        <v>16067</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alana Jesus</t>
+          <t>Esther Araújo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>8929.059999999999</v>
+        <v>3825.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38736</v>
+        <v>68203</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Julia Sales</t>
+          <t>Bryan Monteiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45088</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>10905.71</v>
+        <v>9975.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70633</v>
+        <v>25928</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laura Alves</t>
+          <t>Lavínia Martins</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>2502.34</v>
+        <v>5558.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>58941</v>
+        <v>41589</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vitória Ferreira</t>
+          <t>Alícia Moura</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45085</v>
       </c>
       <c r="G9" t="n">
-        <v>4992.12</v>
+        <v>10938.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>77812</v>
+        <v>7189</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Joana Rezende</t>
+          <t>Marina da Mota</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>5178.49</v>
+        <v>2634.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>85837</v>
+        <v>89005</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amanda das Neves</t>
+          <t>Vicente Cardoso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>5409.13</v>
+        <v>9003.190000000001</v>
       </c>
     </row>
   </sheetData>
